--- a/sapphire_backend/static/templates/meteo_norm_monthly_template.xlsx
+++ b/sapphire_backend/static/templates/meteo_norm_monthly_template.xlsx
@@ -5,25 +5,61 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="precipitation" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="temperature" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
@@ -36,10 +72,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -57,6 +94,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,12 +111,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -101,9 +152,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -129,65 +184,65 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -199,65 +254,65 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>